--- a/NÃ_S PO2 (1).xlsx
+++ b/NÃ_S PO2 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EDF85A-133D-49E9-B13C-3519F22516EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716CB018-385E-498E-9F5C-97A0FFB62C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -367,10 +369,6 @@
       <c r="C2" s="3">
         <v>8</v>
       </c>
-      <c r="D2" t="str">
-        <f>LEFT(B2,1)</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="8">
@@ -382,10 +380,6 @@
       <c r="C3" s="4">
         <v>8</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D8" si="0">LEFT(B3,1)</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="8">
@@ -395,10 +389,6 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -412,10 +402,6 @@
       <c r="C5" s="4">
         <v>8</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="8">
@@ -427,10 +413,6 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" ref="D3:D66" si="1">LEFT(B6,2)</f>
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="8">
@@ -442,10 +424,6 @@
       <c r="C7" s="4">
         <v>8</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8">
@@ -457,10 +435,6 @@
       <c r="C8" s="4">
         <v>16</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
@@ -473,10 +447,6 @@
       <c r="C9" s="4">
         <v>16</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
@@ -489,10 +459,6 @@
       <c r="C10" s="4">
         <v>14</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
@@ -505,10 +471,6 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
@@ -521,10 +483,6 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" ref="D12:D15" si="2">LEFT(B12,1)</f>
-        <v>1</v>
-      </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:7">
@@ -537,10 +495,6 @@
       <c r="C13" s="4">
         <v>16</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7">
@@ -553,10 +507,6 @@
       <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:7">
@@ -569,10 +519,6 @@
       <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="14.25">
@@ -585,10 +531,6 @@
       <c r="C16" s="4">
         <v>4</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
     </row>
     <row r="17" spans="1:6" ht="14.25">
       <c r="A17" s="8">
@@ -599,10 +541,6 @@
       </c>
       <c r="C17" s="4">
         <v>6</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25">
@@ -615,10 +553,6 @@
       <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" ref="D18:D19" si="3">LEFT(B18,1)</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="8">
@@ -630,10 +564,6 @@
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
@@ -646,10 +576,6 @@
       <c r="C20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
@@ -662,10 +588,6 @@
       <c r="C21" s="3">
         <v>6</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" ref="D21:D28" si="4">LEFT(B21,1)</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="7">
@@ -676,10 +598,6 @@
       </c>
       <c r="C22" s="4">
         <v>1</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="4"/>
-        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
@@ -692,10 +610,6 @@
       <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="8">
@@ -707,10 +621,6 @@
       <c r="C24" s="4">
         <v>2</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="7">
@@ -722,10 +632,6 @@
       <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="7">
@@ -737,10 +643,6 @@
       <c r="C26" s="4">
         <v>2</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="7">
@@ -752,10 +654,6 @@
       <c r="C27" s="4">
         <v>4</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="8">
@@ -767,10 +665,6 @@
       <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="8">
@@ -782,10 +676,6 @@
       <c r="C29" s="4">
         <v>1</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="8">
@@ -797,10 +687,6 @@
       <c r="C30" s="4">
         <v>1</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="7">
@@ -812,10 +698,6 @@
       <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" ref="D31" si="5">LEFT(B31,1)</f>
-        <v>9</v>
-      </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="7">
@@ -827,12 +709,8 @@
       <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="7">
         <v>10</v>
       </c>
@@ -842,12 +720,8 @@
       <c r="C33" s="4">
         <v>3</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="7">
         <v>11</v>
       </c>
@@ -857,12 +731,8 @@
       <c r="C34" s="4">
         <v>5</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" ref="D34:D35" si="6">LEFT(B34,1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="7">
         <v>11</v>
       </c>
@@ -872,12 +742,8 @@
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="7">
         <v>11</v>
       </c>
@@ -887,12 +753,8 @@
       <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="7">
         <v>11</v>
       </c>
@@ -902,12 +764,8 @@
       <c r="C37" s="4">
         <v>2</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="7">
         <v>11</v>
       </c>
@@ -917,12 +775,8 @@
       <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="7">
         <v>12</v>
       </c>
@@ -932,12 +786,8 @@
       <c r="C39" s="4">
         <v>4</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" ref="D39" si="7">LEFT(B39,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="7">
         <v>12</v>
       </c>
@@ -947,12 +797,8 @@
       <c r="C40" s="4">
         <v>2</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="7">
         <v>12</v>
       </c>
@@ -962,12 +808,8 @@
       <c r="C41" s="4">
         <v>2</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="7">
         <v>13</v>
       </c>
@@ -977,12 +819,8 @@
       <c r="C42" s="4">
         <v>6</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" ref="D42" si="8">LEFT(B42,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="7">
         <v>13</v>
       </c>
@@ -992,12 +830,8 @@
       <c r="C43" s="4">
         <v>2</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="7">
         <v>14</v>
       </c>
@@ -1007,12 +841,8 @@
       <c r="C44" s="4">
         <v>16</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" ref="D44" si="9">LEFT(B44,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="7">
         <v>14</v>
       </c>
@@ -1022,12 +852,8 @@
       <c r="C45" s="4">
         <v>4</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="7">
         <v>14</v>
       </c>
@@ -1037,12 +863,8 @@
       <c r="C46" s="4">
         <v>3</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="7">
         <v>15</v>
       </c>
@@ -1052,12 +874,8 @@
       <c r="C47" s="4">
         <v>5</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" ref="D47:D48" si="10">LEFT(B47,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="7">
         <v>15</v>
       </c>
@@ -1067,12 +885,8 @@
       <c r="C48" s="4">
         <v>14</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="7">
         <v>15</v>
       </c>
@@ -1082,12 +896,8 @@
       <c r="C49" s="4">
         <v>4</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="8">
         <v>16</v>
       </c>
@@ -1097,12 +907,8 @@
       <c r="C50" s="4">
         <v>4</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="8">
         <v>16</v>
       </c>
@@ -1112,12 +918,8 @@
       <c r="C51" s="4">
         <v>4</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="8">
         <v>16</v>
       </c>
@@ -1127,12 +929,8 @@
       <c r="C52" s="4">
         <v>3</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="8">
         <v>16</v>
       </c>
@@ -1142,12 +940,8 @@
       <c r="C53" s="4">
         <v>3</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="7">
         <v>17</v>
       </c>
@@ -1157,12 +951,8 @@
       <c r="C54" s="4">
         <v>3</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="7">
         <v>17</v>
       </c>
@@ -1172,12 +962,8 @@
       <c r="C55" s="4">
         <v>3</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="8">
         <v>18</v>
       </c>
@@ -1187,12 +973,8 @@
       <c r="C56" s="4">
         <v>3</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="8">
         <v>18</v>
       </c>
@@ -1202,12 +984,8 @@
       <c r="C57" s="4">
         <v>3</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="8">
         <v>18</v>
       </c>
@@ -1217,12 +995,8 @@
       <c r="C58" s="4">
         <v>3</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="8">
         <v>19</v>
       </c>
@@ -1232,12 +1006,8 @@
       <c r="C59" s="4">
         <v>3</v>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="8">
         <v>19</v>
       </c>
@@ -1247,12 +1017,8 @@
       <c r="C60" s="4">
         <v>3</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="8">
         <v>19</v>
       </c>
@@ -1262,12 +1028,8 @@
       <c r="C61" s="4">
         <v>6</v>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="8">
         <v>19</v>
       </c>
@@ -1277,12 +1039,8 @@
       <c r="C62" s="4">
         <v>8</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="8">
         <v>20</v>
       </c>
@@ -1292,12 +1050,8 @@
       <c r="C63" s="4">
         <v>6</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="8">
         <v>20</v>
       </c>
@@ -1307,12 +1061,8 @@
       <c r="C64" s="4">
         <v>6</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="8">
         <v>20</v>
       </c>
@@ -1322,12 +1072,8 @@
       <c r="C65" s="4">
         <v>4</v>
       </c>
-      <c r="D65" t="str">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
       <c r="A66" s="8">
         <v>21</v>
       </c>
@@ -1337,12 +1083,8 @@
       <c r="C66" s="4">
         <v>6</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="8">
         <v>21</v>
       </c>
@@ -1352,12 +1094,8 @@
       <c r="C67" s="4">
         <v>5</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D91" si="11">LEFT(B67,2)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="8">
         <v>21</v>
       </c>
@@ -1367,12 +1105,8 @@
       <c r="C68" s="4">
         <v>4</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
       <c r="A69" s="7">
         <v>22</v>
       </c>
@@ -1382,12 +1116,8 @@
       <c r="C69" s="4">
         <v>5</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" ref="D69" si="12">LEFT(B69,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
       <c r="A70" s="7">
         <v>22</v>
       </c>
@@ -1397,12 +1127,8 @@
       <c r="C70" s="4">
         <v>8</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
       <c r="A71" s="7">
         <v>22</v>
       </c>
@@ -1412,12 +1138,8 @@
       <c r="C71" s="4">
         <v>4</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
       <c r="A72" s="7">
         <v>22</v>
       </c>
@@ -1427,12 +1149,8 @@
       <c r="C72" s="4">
         <v>6</v>
       </c>
-      <c r="D72" t="str">
-        <f t="shared" si="11"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
       <c r="A73" s="7">
         <v>22</v>
       </c>
@@ -1442,12 +1160,8 @@
       <c r="C73" s="4">
         <v>6</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
       <c r="A74" s="8">
         <v>23</v>
       </c>
@@ -1457,12 +1171,8 @@
       <c r="C74" s="4">
         <v>6</v>
       </c>
-      <c r="D74" t="str">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1">
       <c r="A75" s="8">
         <v>23</v>
       </c>
@@ -1472,12 +1182,8 @@
       <c r="C75" s="4">
         <v>1</v>
       </c>
-      <c r="D75" t="str">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1">
       <c r="A76" s="7">
         <v>24</v>
       </c>
@@ -1487,12 +1193,8 @@
       <c r="C76" s="4">
         <v>1</v>
       </c>
-      <c r="D76" t="str">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1">
       <c r="A77" s="7">
         <v>24</v>
       </c>
@@ -1502,12 +1204,8 @@
       <c r="C77" s="4">
         <v>1</v>
       </c>
-      <c r="D77" t="str">
-        <f t="shared" si="11"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="7">
         <v>25</v>
       </c>
@@ -1517,12 +1215,8 @@
       <c r="C78" s="4">
         <v>3</v>
       </c>
-      <c r="D78" t="str">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1">
       <c r="A79" s="7">
         <v>25</v>
       </c>
@@ -1532,12 +1226,8 @@
       <c r="C79" s="4">
         <v>6</v>
       </c>
-      <c r="D79" t="str">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1">
       <c r="A80" s="7">
         <v>25</v>
       </c>
@@ -1547,12 +1237,8 @@
       <c r="C80" s="4">
         <v>4</v>
       </c>
-      <c r="D80" t="str">
-        <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1">
       <c r="A81" s="8">
         <v>26</v>
       </c>
@@ -1562,12 +1248,8 @@
       <c r="C81" s="4">
         <v>6</v>
       </c>
-      <c r="D81" t="str">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1">
       <c r="A82" s="8">
         <v>26</v>
       </c>
@@ -1577,12 +1259,8 @@
       <c r="C82" s="4">
         <v>6</v>
       </c>
-      <c r="D82" t="str">
-        <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1">
       <c r="A83" s="8">
         <v>26</v>
       </c>
@@ -1592,12 +1270,8 @@
       <c r="C83" s="4">
         <v>2</v>
       </c>
-      <c r="D83" t="str">
-        <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1">
       <c r="A84" s="8">
         <v>27</v>
       </c>
@@ -1607,12 +1281,8 @@
       <c r="C84" s="4">
         <v>5</v>
       </c>
-      <c r="D84" t="str">
-        <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1">
       <c r="A85" s="8">
         <v>27</v>
       </c>
@@ -1622,12 +1292,8 @@
       <c r="C85" s="4">
         <v>4</v>
       </c>
-      <c r="D85" t="str">
-        <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1">
       <c r="A86" s="8">
         <v>27</v>
       </c>
@@ -1637,12 +1303,8 @@
       <c r="C86" s="4">
         <v>2</v>
       </c>
-      <c r="D86" t="str">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1">
       <c r="A87" s="8">
         <v>27</v>
       </c>
@@ -1652,12 +1314,8 @@
       <c r="C87" s="4">
         <v>3</v>
       </c>
-      <c r="D87" t="str">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1">
       <c r="A88" s="8">
         <v>28</v>
       </c>
@@ -1667,12 +1325,8 @@
       <c r="C88" s="4">
         <v>4</v>
       </c>
-      <c r="D88" t="str">
-        <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1">
       <c r="A89" s="8">
         <v>28</v>
       </c>
@@ -1682,12 +1336,8 @@
       <c r="C89" s="4">
         <v>3</v>
       </c>
-      <c r="D89" t="str">
-        <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1">
       <c r="A90" s="8">
         <v>28</v>
       </c>
@@ -1697,12 +1347,8 @@
       <c r="C90" s="4">
         <v>9</v>
       </c>
-      <c r="D90" t="str">
-        <f t="shared" si="11"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1">
       <c r="A91" s="8">
         <v>29</v>
       </c>
@@ -1712,16 +1358,12 @@
       <c r="C91" s="4">
         <v>10</v>
       </c>
-      <c r="D91" t="str">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
